--- a/static/excel/银行三要素模版.xlsx
+++ b/static/excel/银行三要素模版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13386\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13386\Desktop\git\shuyun-ui\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39397ED0-F9A2-4611-8E71-7B6A5B32983B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ED6113-DC6B-4F95-B8B9-A368F5EF826D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -55,6 +55,14 @@
     <rPh sb="0" eb="1">
       <t>zhang san</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310115199402221000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6220123456781230</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -62,9 +70,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -132,10 +137,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -420,14 +425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.36328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="13.81640625" customWidth="1"/>
   </cols>
@@ -450,16 +455,16 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>3.1011519940222099E+17</v>
-      </c>
-      <c r="C2" s="6">
-        <v>6220123456781230</v>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>